--- a/src/test/resources/Flipkart_testresult.xlsx
+++ b/src/test/resources/Flipkart_testresult.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="6">
   <si>
     <t>Testcaseid</t>
   </si>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,6 +462,166 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
